--- a/template_db.xlsx
+++ b/template_db.xlsx
@@ -12,15 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="empresas" sheetId="8" r:id="rId1"/>
-    <sheet name="presentations" sheetId="7" r:id="rId2"/>
+    <sheet name="submenus" sheetId="10" r:id="rId1"/>
+    <sheet name="menus" sheetId="9" r:id="rId2"/>
+    <sheet name="empresas" sheetId="8" r:id="rId3"/>
+    <sheet name="presentations" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="88">
   <si>
     <t>field</t>
   </si>
@@ -266,6 +268,24 @@
   </si>
   <si>
     <t>timestamp</t>
+  </si>
+  <si>
+    <t>menus</t>
+  </si>
+  <si>
+    <t>Menús</t>
+  </si>
+  <si>
+    <t>ID MENU</t>
+  </si>
+  <si>
+    <t>submenus</t>
+  </si>
+  <si>
+    <t>Submenús</t>
+  </si>
+  <si>
+    <t>ID SUBMENU</t>
   </si>
 </sst>
 </file>
@@ -563,9 +583,825 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="3"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="3"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="3"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="3"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="3"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="3"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="3"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="3"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="3"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="3"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="3"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="3"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="3"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="3"/>
+      <c r="E52" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="3"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="3"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="3"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="3"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="3"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="3"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="3"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="3"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="3"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="3"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="3"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="3"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="3"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="3"/>
+      <c r="E52" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1241,7 +2077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
